--- a/bills.xlsx
+++ b/bills.xlsx
@@ -1,43 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aashish_kushwaha/praveen/projects/new/automate-bills-downloader/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Consumer</t>
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>jan,feb</t>
+  </si>
+  <si>
+    <t>mar,apr</t>
+  </si>
+  <si>
+    <t>jan, apr</t>
+  </si>
+  <si>
+    <t>jun,jul</t>
+  </si>
+  <si>
+    <t>oct,nov</t>
+  </si>
+  <si>
+    <t>jan,mar</t>
+  </si>
+  <si>
+    <t>dec,feb</t>
+  </si>
+  <si>
+    <t>jan,nov</t>
+  </si>
+  <si>
+    <t>sep,may</t>
+  </si>
+  <si>
+    <t>may,apr</t>
+  </si>
+  <si>
+    <t>dec,mar</t>
+  </si>
+  <si>
+    <t>nov,aug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -47,40 +106,42 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -270,27 +331,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -315,103 +383,139 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>1.70688856348E11</v>
+        <v>170688856348</v>
       </c>
       <c r="B2" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4636</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>1.70688851621E11</v>
+        <v>170688851621</v>
       </c>
       <c r="B3" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>4636</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>1.70688861384E11</v>
+        <v>170688861384</v>
       </c>
       <c r="B4" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>4636</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1.70688858995E11</v>
+        <v>170688858995</v>
       </c>
       <c r="B5" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4636</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>1.70688852041E11</v>
+        <v>170688852041</v>
       </c>
       <c r="B6" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4636</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>1.70688852075E11</v>
+        <v>170688852075</v>
       </c>
       <c r="B7" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4636</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>1.70688859011E11</v>
+        <v>170688859011</v>
       </c>
       <c r="B8" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>4636</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>1.7067583938E11</v>
+        <v>170675839380</v>
       </c>
       <c r="B9" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4636</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>1.70688851648E11</v>
+        <v>170688851648</v>
       </c>
       <c r="B10" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>4636</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>1.70688856313E11</v>
+        <v>170688856313</v>
       </c>
       <c r="B11" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>4636</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>1.70688859029E11</v>
+        <v>170688859029</v>
       </c>
       <c r="B12" s="3">
-        <v>4636.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>4636</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>1.70688852059E11</v>
+        <v>170688852059</v>
       </c>
       <c r="B13" s="3">
-        <v>4636.0</v>
+        <v>4636</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bills.xlsx
+++ b/bills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,6 +78,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -109,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,15 +120,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,10 +365,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -515,6 +539,87 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>160252832341</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>160252832367</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>170743925516</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>170741644315</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>170741644412</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>170741644404</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>170003628933</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>170003629018</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>170003629026</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>170003629034</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bills.xlsx
+++ b/bills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Consumer</t>
   </si>
@@ -53,34 +53,25 @@
     <t>oct,nov</t>
   </si>
   <si>
-    <t>jan,mar</t>
-  </si>
-  <si>
-    <t>dec,feb</t>
-  </si>
-  <si>
-    <t>jan,nov</t>
-  </si>
-  <si>
-    <t>sep,may</t>
-  </si>
-  <si>
-    <t>may,apr</t>
-  </si>
-  <si>
-    <t>dec,mar</t>
-  </si>
-  <si>
-    <t>nov,aug</t>
+    <t xml:space="preserve"> jan,mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dec,feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sep,may</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jan,nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> may,apr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -139,15 +130,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -368,13 +362,16 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="7" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -408,7 +405,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>170688856348</v>
       </c>
       <c r="B2" s="3">
@@ -419,7 +416,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>170688851621</v>
       </c>
       <c r="B3" s="3">
@@ -430,7 +427,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>170688861384</v>
       </c>
       <c r="B4" s="3">
@@ -441,7 +438,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>170688858995</v>
       </c>
       <c r="B5" s="3">
@@ -452,7 +449,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>170688852041</v>
       </c>
       <c r="B6" s="3">
@@ -463,7 +460,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>170688852075</v>
       </c>
       <c r="B7" s="3">
@@ -474,7 +471,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>170688859011</v>
       </c>
       <c r="B8" s="3">
@@ -485,29 +482,29 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>170675839380</v>
       </c>
       <c r="B9" s="3">
         <v>4636</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>170688851648</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4636</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>170688851648</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4636</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>170688856313</v>
       </c>
       <c r="B11" s="3">
@@ -518,107 +515,53 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>170688859029</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4636</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>170688852059</v>
-      </c>
-      <c r="B13" s="3">
-        <v>4636</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>160252832341</v>
-      </c>
-      <c r="B16" s="5">
-        <v>4610</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>160252832367</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4610</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>170743925516</v>
-      </c>
-      <c r="B18" s="5">
-        <v>4746</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>170741644315</v>
-      </c>
-      <c r="B19" s="5">
-        <v>4746</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>170741644412</v>
-      </c>
-      <c r="B20" s="5">
-        <v>4746</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>170741644404</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4746</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>170003628933</v>
-      </c>
-      <c r="B22" s="5">
-        <v>4745</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>170003629018</v>
-      </c>
-      <c r="B23" s="5">
-        <v>4745</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>170003629026</v>
-      </c>
-      <c r="B24" s="5">
-        <v>4745</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>170003629034</v>
-      </c>
-      <c r="B25" s="5">
-        <v>4745</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
